--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2690479.053182259</v>
+        <v>2688102.426234893</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>192.8907366377098</v>
+        <v>59.94668330577097</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>76.30362177848122</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>197.2597383356335</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.4227759882135</v>
       </c>
       <c r="Y5" t="n">
-        <v>222.968424575194</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>211.4496987473626</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>225.7344481542842</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138458</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223839</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>154.0370966050008</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881283</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>95.21019414968927</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.77749086859501</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1793.919728214993</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C2" t="n">
-        <v>1424.957211274582</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
         <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,13 +4325,13 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190805</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1793.919728214993</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182522</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057918</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>821.9680821844934</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1590.995858314206</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>1422.059675386299</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973964</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391571</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936603</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936603</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>2363.087067455071</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>2108.402579249184</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1818.985409212223</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1590.995858314206</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1590.995858314206</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1653.287154902436</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
         <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,7 +4562,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1653.287154902436</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.950988797912</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2334.324734304918</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1981.556079034804</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1608.090320773724</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.950988797912</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782941</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5729,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>552.8412329032296</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2418.905011995821</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2236.050177650725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2016.448712673667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>955.2822768769995</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>734.4896977334694</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,16 +7178,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105.1672460959146</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582844</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462256</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.59775584152668</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="13">
@@ -26314,46 +26314,46 @@
         <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520045</v>
-      </c>
       <c r="J2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426732011</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731998</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731989</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732001</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-685174.1403862011</v>
       </c>
       <c r="C6" t="n">
-        <v>429577.6431897188</v>
+        <v>429577.6431897182</v>
       </c>
       <c r="D6" t="n">
-        <v>429577.6431897187</v>
+        <v>429577.6431897182</v>
       </c>
       <c r="E6" t="n">
-        <v>28991.99587681984</v>
+        <v>28957.25795138444</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013658</v>
+        <v>536442.6995759305</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759305</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.4375013654</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="J6" t="n">
-        <v>368872.259691383</v>
+        <v>368837.5217659476</v>
       </c>
       <c r="K6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="L6" t="n">
-        <v>536477.4375013658</v>
+        <v>536442.6995759305</v>
       </c>
       <c r="M6" t="n">
-        <v>403870.143772439</v>
+        <v>403835.4058470035</v>
       </c>
       <c r="N6" t="n">
-        <v>536477.437501366</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="O6" t="n">
-        <v>536477.4375013658</v>
+        <v>536442.69957593</v>
       </c>
       <c r="P6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759301</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>161.7923049829731</v>
+        <v>294.736358314912</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>90.94319932014662</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,19 +27585,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>88.96741578556711</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.3083246902555</v>
       </c>
       <c r="Y5" t="n">
-        <v>163.2695140808596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.27076102970096</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>153.823193023645</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.0178103158507</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227452</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>147.4873481937407</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>402.8476067337648</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35030,7 +35030,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839574</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>20.64972152707399</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295172</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
